--- a/Dokumentation/Entwicklung_Factories.xlsx
+++ b/Dokumentation/Entwicklung_Factories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>Funktion</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Löscht einen Laden</t>
+  </si>
+  <si>
+    <t>Ändern nichts am System</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,9 +657,10 @@
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -683,8 +687,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -696,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -708,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -722,7 +729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -734,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>19</v>
@@ -746,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -758,7 +765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -770,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
@@ -782,7 +789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -796,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
@@ -808,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>34</v>
@@ -820,7 +827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -832,7 +839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -844,7 +851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>39</v>
